--- a/experiment/experiment@weihai/query.xlsx
+++ b/experiment/experiment@weihai/query.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA76417-CC74-4DFD-8F6E-83E67E39F0FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D3D55-3D2C-4014-A3BE-BC1668E34862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query from datasets" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="overall" sheetId="3" r:id="rId3"/>
     <sheet name="statistics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>dataset id</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>plant species community</t>
+  </si>
+  <si>
+    <t>Budapest Art Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceanographic standardised terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathematics classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,18 +690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="122.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -711,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -722,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24</v>
       </c>
@@ -730,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -741,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>151</v>
       </c>
@@ -755,7 +767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>207</v>
       </c>
@@ -763,10 +775,10 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>286</v>
       </c>
@@ -777,7 +789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>915</v>
       </c>
@@ -788,7 +800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1199</v>
       </c>
@@ -799,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1201</v>
       </c>
@@ -810,7 +822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1214</v>
       </c>
@@ -821,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1216</v>
       </c>
@@ -832,7 +844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1719</v>
       </c>
@@ -843,7 +855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2077</v>
       </c>
@@ -854,7 +866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2324</v>
       </c>
@@ -865,7 +877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2442</v>
       </c>
@@ -876,7 +888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3770</v>
       </c>
@@ -887,7 +899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3800</v>
       </c>
@@ -898,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3806</v>
       </c>
@@ -909,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3960</v>
       </c>
@@ -920,7 +932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4042</v>
       </c>
@@ -931,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4245</v>
       </c>
@@ -942,7 +954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4414</v>
       </c>
@@ -953,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4976</v>
       </c>
@@ -964,7 +976,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6206</v>
       </c>
@@ -975,18 +987,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7022</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7794</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8122</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8130</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8756</v>
       </c>
@@ -1031,7 +1043,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="A2:A31"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,147 +1056,147 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1200,13 +1212,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A522E03-7797-4DB4-8FA5-71EB38112175}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C59" sqref="C59:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>AVERAGE(C2:C58)</f>
         <v>11.245614035087719</v>
@@ -2206,7 +2218,7 @@
         <v>41.736842105263158</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>SUM(C2:C58)</f>
         <v>641</v>
@@ -2230,13 +2242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A533FA-2F14-49D3-A783-26E522ABD269}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>

--- a/experiment/experiment@weihai/query.xlsx
+++ b/experiment/experiment@weihai/query.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D3D55-3D2C-4014-A3BE-BC1668E34862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B1AD1-9F26-4021-BEBA-018BABEF804C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query from datasets" sheetId="1" r:id="rId1"/>
@@ -385,12 +385,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -405,9 +411,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -690,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1064,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1125,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1132,7 +1140,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1177,7 +1185,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1212,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A522E03-7797-4DB4-8FA5-71EB38112175}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1406,19 +1414,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>44</v>
       </c>
     </row>
@@ -1610,19 +1618,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>42</v>
       </c>
     </row>
